--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Доска объявлений.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Доска объявлений.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="2618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="2616">
   <si>
     <t>Раздел</t>
   </si>
@@ -8336,21 +8336,12 @@
     <t>и сбежал.</t>
   </si>
   <si>
-    <t>и я не смог поймать его.</t>
-  </si>
-  <si>
     <t>и сбежал!</t>
   </si>
   <si>
-    <t>и у меня не вышло догнать его!</t>
-  </si>
-  <si>
     <t>и сбежал, снова!</t>
   </si>
   <si>
-    <t>и у меня не вышло поймать его.</t>
-  </si>
-  <si>
     <t>Прошу, верните его!</t>
   </si>
   <si>
@@ -8372,9 +8363,6 @@
     <t>Прошу! Я умоляю!</t>
   </si>
   <si>
-    <t>Кто-нибудь, на помощь!</t>
-  </si>
-  <si>
     <t>Прошу! Мне это нужно!</t>
   </si>
   <si>
@@ -8387,21 +8375,12 @@
     <t>é òáåçàì.</t>
   </si>
   <si>
-    <t>é ÿ îå òíïã ðïêíàóû åãï.</t>
-  </si>
-  <si>
     <t>é òáåçàì!</t>
   </si>
   <si>
-    <t>é ô íåîÿ îå âúšìï äïãîàóû åãï!</t>
-  </si>
-  <si>
     <t>é òáåçàì, òîïâà!</t>
   </si>
   <si>
-    <t>é ô íåîÿ îå âúšìï ðïêíàóû åãï.</t>
-  </si>
-  <si>
     <t>Ðñïšô, âåñîéóå åãï!</t>
   </si>
   <si>
@@ -8421,9 +8400,6 @@
   </si>
   <si>
     <t>Ðñïšô! Ÿ ôíïìÿý!</t>
-  </si>
-  <si>
-    <t>Ëóï-îéáôäû, îà ðïíïþû!</t>
   </si>
   <si>
     <t>Ðñïšô! Íîå üóï îôçîï!</t>
@@ -9403,6 +9379,24 @@
     <t>[CN]Âú ôçå âúðïìîéìé üóï
 [CN]èàäàîéå. Åãï áïìûšå
 [CN]îåâïèíïçîï âèÿóû.</t>
+  </si>
+  <si>
+    <t>На помощь!</t>
+  </si>
+  <si>
+    <t>Îà ðïíïþû!</t>
+  </si>
+  <si>
+    <t>и я не поймал его.</t>
+  </si>
+  <si>
+    <t>и я не поймал его!</t>
+  </si>
+  <si>
+    <t>é ÿ îå ðïêíàì åãï.</t>
+  </si>
+  <si>
+    <t>é ÿ îå ðïêíàì åãï!</t>
   </si>
 </sst>
 </file>
@@ -9873,8 +9867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A942" workbookViewId="0">
-      <selection activeCell="C945" sqref="C945"/>
+    <sheetView tabSelected="1" topLeftCell="B829" workbookViewId="0">
+      <selection activeCell="C833" sqref="C833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16997,10 +16991,10 @@
         <v>1209</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="E445" s="10" t="s">
-        <v>2372</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -23192,7 +23186,7 @@
         <v>2337</v>
       </c>
       <c r="E832" s="10" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.3">
@@ -23205,10 +23199,10 @@
         <v>2320</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>2338</v>
+        <v>2612</v>
       </c>
       <c r="E833" s="10" t="s">
-        <v>2355</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.3">
@@ -23221,10 +23215,10 @@
         <v>2321</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E834" s="10" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.3">
@@ -23240,7 +23234,7 @@
         <v>2337</v>
       </c>
       <c r="E835" s="10" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.3">
@@ -23253,10 +23247,10 @@
         <v>2322</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>2340</v>
+        <v>2613</v>
       </c>
       <c r="E836" s="10" t="s">
-        <v>2357</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.3">
@@ -23269,10 +23263,10 @@
         <v>2323</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="E837" s="10" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.3">
@@ -23285,10 +23279,10 @@
         <v>2324</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>2342</v>
+        <v>2612</v>
       </c>
       <c r="E838" s="10" t="s">
-        <v>2359</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.3">
@@ -23301,10 +23295,10 @@
         <v>2325</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="E839" s="10" t="s">
-        <v>2360</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.3">
@@ -23317,10 +23311,10 @@
         <v>2326</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="E840" s="10" t="s">
-        <v>2361</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.3">
@@ -23333,10 +23327,10 @@
         <v>2327</v>
       </c>
       <c r="D841" s="9" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="E841" s="10" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.3">
@@ -23349,10 +23343,10 @@
         <v>2328</v>
       </c>
       <c r="D842" s="9" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="E842" s="10" t="s">
-        <v>2363</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.3">
@@ -23365,10 +23359,10 @@
         <v>2329</v>
       </c>
       <c r="D843" s="9" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="E843" s="10" t="s">
-        <v>2364</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.3">
@@ -23381,10 +23375,10 @@
         <v>2330</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="E844" s="10" t="s">
-        <v>2365</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.3">
@@ -23397,10 +23391,10 @@
         <v>2331</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="E845" s="10" t="s">
-        <v>2366</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.3">
@@ -23413,10 +23407,10 @@
         <v>2332</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>2350</v>
+        <v>2610</v>
       </c>
       <c r="E846" s="10" t="s">
-        <v>2367</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.3">
@@ -23429,10 +23423,10 @@
         <v>2333</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="E847" s="10" t="s">
-        <v>2361</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.3">
@@ -23445,10 +23439,10 @@
         <v>2334</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="E848" s="10" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.3">
@@ -23461,10 +23455,10 @@
         <v>2335</v>
       </c>
       <c r="D849" s="9" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="E849" s="10" t="s">
-        <v>2369</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="850" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23477,10 +23471,10 @@
         <v>2336</v>
       </c>
       <c r="D850" s="11" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E850" s="12" t="s">
-        <v>2370</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.3">
@@ -23490,13 +23484,13 @@
         <v>15390</v>
       </c>
       <c r="C851" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D851" s="9" t="s">
         <v>2373</v>
       </c>
-      <c r="D851" s="9" t="s">
+      <c r="E851" s="10" t="s">
         <v>2381</v>
-      </c>
-      <c r="E851" s="10" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.3">
@@ -23506,13 +23500,13 @@
         <v>15391</v>
       </c>
       <c r="C852" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D852" s="9" t="s">
         <v>2374</v>
       </c>
-      <c r="D852" s="9" t="s">
+      <c r="E852" s="10" t="s">
         <v>2382</v>
-      </c>
-      <c r="E852" s="10" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.3">
@@ -23522,13 +23516,13 @@
         <v>15392</v>
       </c>
       <c r="C853" s="9" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D853" s="9" t="s">
         <v>2375</v>
       </c>
-      <c r="D853" s="9" t="s">
+      <c r="E853" s="10" t="s">
         <v>2383</v>
-      </c>
-      <c r="E853" s="10" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.3">
@@ -23538,13 +23532,13 @@
         <v>15393</v>
       </c>
       <c r="C854" s="9" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D854" s="9" t="s">
         <v>2376</v>
       </c>
-      <c r="D854" s="9" t="s">
+      <c r="E854" s="10" t="s">
         <v>2384</v>
-      </c>
-      <c r="E854" s="10" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.3">
@@ -23554,13 +23548,13 @@
         <v>15394</v>
       </c>
       <c r="C855" s="9" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D855" s="9" t="s">
         <v>2377</v>
       </c>
-      <c r="D855" s="9" t="s">
+      <c r="E855" s="10" t="s">
         <v>2385</v>
-      </c>
-      <c r="E855" s="10" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.3">
@@ -23570,13 +23564,13 @@
         <v>15395</v>
       </c>
       <c r="C856" s="9" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D856" s="9" t="s">
         <v>2378</v>
       </c>
-      <c r="D856" s="9" t="s">
+      <c r="E856" s="10" t="s">
         <v>2386</v>
-      </c>
-      <c r="E856" s="10" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.3">
@@ -23586,13 +23580,13 @@
         <v>15396</v>
       </c>
       <c r="C857" s="9" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D857" s="9" t="s">
         <v>2379</v>
       </c>
-      <c r="D857" s="9" t="s">
+      <c r="E857" s="10" t="s">
         <v>2387</v>
-      </c>
-      <c r="E857" s="10" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.3">
@@ -23602,13 +23596,13 @@
         <v>15397</v>
       </c>
       <c r="C858" s="9" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D858" s="9" t="s">
         <v>2380</v>
       </c>
-      <c r="D858" s="9" t="s">
+      <c r="E858" s="10" t="s">
         <v>2388</v>
-      </c>
-      <c r="E858" s="10" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.3">
@@ -23618,13 +23612,13 @@
         <v>15398</v>
       </c>
       <c r="C859" s="9" t="s">
-        <v>2397</v>
+        <v>2389</v>
       </c>
       <c r="D859" s="9" t="s">
-        <v>2399</v>
+        <v>2391</v>
       </c>
       <c r="E859" s="10" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.3">
@@ -23634,13 +23628,13 @@
         <v>15399</v>
       </c>
       <c r="C860" s="9" t="s">
-        <v>2398</v>
+        <v>2390</v>
       </c>
       <c r="D860" s="9" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="E860" s="10" t="s">
-        <v>2402</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.3">
@@ -23650,13 +23644,13 @@
         <v>15400</v>
       </c>
       <c r="C861" s="9" t="s">
-        <v>2403</v>
+        <v>2395</v>
       </c>
       <c r="D861" s="9" t="s">
-        <v>2415</v>
+        <v>2407</v>
       </c>
       <c r="E861" s="10" t="s">
-        <v>2422</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.3">
@@ -23666,13 +23660,13 @@
         <v>15401</v>
       </c>
       <c r="C862" s="9" t="s">
-        <v>2404</v>
+        <v>2396</v>
       </c>
       <c r="D862" s="9" t="s">
-        <v>2404</v>
+        <v>2396</v>
       </c>
       <c r="E862" s="10" t="s">
-        <v>2404</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.3">
@@ -23682,13 +23676,13 @@
         <v>15402</v>
       </c>
       <c r="C863" s="9" t="s">
-        <v>2405</v>
+        <v>2397</v>
       </c>
       <c r="D863" s="9" t="s">
-        <v>2405</v>
+        <v>2397</v>
       </c>
       <c r="E863" s="10" t="s">
-        <v>2405</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.3">
@@ -23698,13 +23692,13 @@
         <v>15403</v>
       </c>
       <c r="C864" s="9" t="s">
-        <v>2406</v>
+        <v>2398</v>
       </c>
       <c r="D864" s="9" t="s">
-        <v>2416</v>
+        <v>2408</v>
       </c>
       <c r="E864" s="10" t="s">
-        <v>2423</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.3">
@@ -23714,13 +23708,13 @@
         <v>15404</v>
       </c>
       <c r="C865" s="9" t="s">
-        <v>2407</v>
+        <v>2399</v>
       </c>
       <c r="D865" s="9" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="E865" s="10" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.3">
@@ -23730,13 +23724,13 @@
         <v>15405</v>
       </c>
       <c r="C866" s="9" t="s">
-        <v>2408</v>
+        <v>2400</v>
       </c>
       <c r="D866" s="9" t="s">
-        <v>2418</v>
+        <v>2410</v>
       </c>
       <c r="E866" s="10" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.3">
@@ -23746,13 +23740,13 @@
         <v>15406</v>
       </c>
       <c r="C867" s="9" t="s">
-        <v>2409</v>
+        <v>2401</v>
       </c>
       <c r="D867" s="9" t="s">
-        <v>2409</v>
+        <v>2401</v>
       </c>
       <c r="E867" s="10" t="s">
-        <v>2409</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.3">
@@ -23762,13 +23756,13 @@
         <v>15407</v>
       </c>
       <c r="C868" s="9" t="s">
-        <v>2410</v>
+        <v>2402</v>
       </c>
       <c r="D868" s="9" t="s">
-        <v>2419</v>
+        <v>2411</v>
       </c>
       <c r="E868" s="10" t="s">
-        <v>2426</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.3">
@@ -23778,13 +23772,13 @@
         <v>15408</v>
       </c>
       <c r="C869" s="9" t="s">
-        <v>2411</v>
+        <v>2403</v>
       </c>
       <c r="D869" s="9" t="s">
-        <v>2411</v>
+        <v>2403</v>
       </c>
       <c r="E869" s="10" t="s">
-        <v>2411</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.3">
@@ -23794,13 +23788,13 @@
         <v>15409</v>
       </c>
       <c r="C870" s="9" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D870" s="9" t="s">
         <v>2412</v>
       </c>
-      <c r="D870" s="9" t="s">
-        <v>2420</v>
-      </c>
       <c r="E870" s="10" t="s">
-        <v>2427</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.3">
@@ -23810,13 +23804,13 @@
         <v>15410</v>
       </c>
       <c r="C871" s="9" t="s">
-        <v>2413</v>
+        <v>2405</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>2413</v>
+        <v>2405</v>
       </c>
       <c r="E871" s="10" t="s">
-        <v>2413</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.3">
@@ -23826,13 +23820,13 @@
         <v>15411</v>
       </c>
       <c r="C872" s="9" t="s">
-        <v>2414</v>
+        <v>2406</v>
       </c>
       <c r="D872" s="9" t="s">
-        <v>2421</v>
+        <v>2413</v>
       </c>
       <c r="E872" s="10" t="s">
-        <v>2428</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.3">
@@ -23842,13 +23836,13 @@
         <v>15412</v>
       </c>
       <c r="C873" s="9" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
       <c r="D873" s="9" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
       <c r="E873" s="10" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.3">
@@ -23858,13 +23852,13 @@
         <v>15413</v>
       </c>
       <c r="C874" s="9" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
       <c r="D874" s="9" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
       <c r="E874" s="10" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.3">
@@ -23874,13 +23868,13 @@
         <v>15414</v>
       </c>
       <c r="C875" s="9" t="s">
-        <v>2431</v>
+        <v>2423</v>
       </c>
       <c r="D875" s="9" t="s">
-        <v>2432</v>
+        <v>2424</v>
       </c>
       <c r="E875" s="10" t="s">
-        <v>2433</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.3">
@@ -23890,13 +23884,13 @@
         <v>15415</v>
       </c>
       <c r="C876" s="9" t="s">
-        <v>2434</v>
+        <v>2426</v>
       </c>
       <c r="D876" s="9" t="s">
-        <v>2434</v>
+        <v>2426</v>
       </c>
       <c r="E876" s="10" t="s">
-        <v>2434</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.3">
@@ -23906,13 +23900,13 @@
         <v>15416</v>
       </c>
       <c r="C877" s="9" t="s">
-        <v>2435</v>
+        <v>2427</v>
       </c>
       <c r="D877" s="9" t="s">
-        <v>2436</v>
+        <v>2428</v>
       </c>
       <c r="E877" s="10" t="s">
-        <v>2437</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.3">
@@ -23922,13 +23916,13 @@
         <v>15417</v>
       </c>
       <c r="C878" s="9" t="s">
-        <v>2438</v>
+        <v>2430</v>
       </c>
       <c r="D878" s="9" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="E878" s="10" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.3">
@@ -23941,10 +23935,10 @@
         <v>161</v>
       </c>
       <c r="D879" s="9" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="E879" s="10" t="s">
-        <v>2467</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.3">
@@ -23954,13 +23948,13 @@
         <v>15419</v>
       </c>
       <c r="C880" s="9" t="s">
-        <v>2439</v>
+        <v>2431</v>
       </c>
       <c r="D880" s="9" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="E880" s="10" t="s">
-        <v>2468</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.3">
@@ -23970,13 +23964,13 @@
         <v>15420</v>
       </c>
       <c r="C881" s="9" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="D881" s="9" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="E881" s="10" t="s">
-        <v>2468</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.3">
@@ -23986,13 +23980,13 @@
         <v>15421</v>
       </c>
       <c r="C882" s="9" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="D882" s="9" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="E882" s="10" t="s">
-        <v>2469</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.3">
@@ -24002,13 +23996,13 @@
         <v>15422</v>
       </c>
       <c r="C883" s="9" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="D883" s="9" t="s">
-        <v>2456</v>
+        <v>2448</v>
       </c>
       <c r="E883" s="10" t="s">
-        <v>2470</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.3">
@@ -24018,13 +24012,13 @@
         <v>15423</v>
       </c>
       <c r="C884" s="9" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="D884" s="9" t="s">
-        <v>2457</v>
+        <v>2449</v>
       </c>
       <c r="E884" s="10" t="s">
-        <v>2471</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.3">
@@ -24034,13 +24028,13 @@
         <v>15424</v>
       </c>
       <c r="C885" s="9" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="D885" s="9" t="s">
-        <v>2458</v>
+        <v>2450</v>
       </c>
       <c r="E885" s="10" t="s">
-        <v>2472</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.3">
@@ -24050,13 +24044,13 @@
         <v>15425</v>
       </c>
       <c r="C886" s="9" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="D886" s="9" t="s">
-        <v>2459</v>
+        <v>2451</v>
       </c>
       <c r="E886" s="10" t="s">
-        <v>2473</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.3">
@@ -24066,13 +24060,13 @@
         <v>15426</v>
       </c>
       <c r="C887" s="9" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="D887" s="9" t="s">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="E887" s="10" t="s">
-        <v>2474</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.3">
@@ -24082,13 +24076,13 @@
         <v>15427</v>
       </c>
       <c r="C888" s="9" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="D888" s="9" t="s">
-        <v>2461</v>
+        <v>2453</v>
       </c>
       <c r="E888" s="10" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.3">
@@ -24098,13 +24092,13 @@
         <v>15428</v>
       </c>
       <c r="C889" s="9" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="D889" s="9" t="s">
-        <v>2462</v>
+        <v>2454</v>
       </c>
       <c r="E889" s="10" t="s">
-        <v>2476</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.3">
@@ -24114,13 +24108,13 @@
         <v>15429</v>
       </c>
       <c r="C890" s="9" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="D890" s="9" t="s">
-        <v>2463</v>
+        <v>2455</v>
       </c>
       <c r="E890" s="10" t="s">
-        <v>2477</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.3">
@@ -24130,13 +24124,13 @@
         <v>15430</v>
       </c>
       <c r="C891" s="9" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="D891" s="9" t="s">
-        <v>2464</v>
+        <v>2456</v>
       </c>
       <c r="E891" s="10" t="s">
-        <v>2478</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.3">
@@ -24146,13 +24140,13 @@
         <v>15431</v>
       </c>
       <c r="C892" s="9" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="D892" s="9" t="s">
-        <v>2465</v>
+        <v>2457</v>
       </c>
       <c r="E892" s="10" t="s">
-        <v>2479</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.3">
@@ -24162,13 +24156,13 @@
         <v>15432</v>
       </c>
       <c r="C893" s="9" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
       <c r="D893" s="9" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
       <c r="E893" s="10" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.3">
@@ -24178,13 +24172,13 @@
         <v>15433</v>
       </c>
       <c r="C894" s="9" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
       <c r="D894" s="9" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
       <c r="E894" s="10" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.3">
@@ -24194,13 +24188,13 @@
         <v>15434</v>
       </c>
       <c r="C895" s="9" t="s">
-        <v>2482</v>
+        <v>2474</v>
       </c>
       <c r="D895" s="9" t="s">
-        <v>2482</v>
+        <v>2474</v>
       </c>
       <c r="E895" s="10" t="s">
-        <v>2482</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.3">
@@ -24210,13 +24204,13 @@
         <v>15435</v>
       </c>
       <c r="C896" s="9" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
       <c r="D896" s="9" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
       <c r="E896" s="10" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.3">
@@ -24226,13 +24220,13 @@
         <v>15436</v>
       </c>
       <c r="C897" s="9" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="D897" s="9" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="E897" s="10" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="898" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -24242,13 +24236,13 @@
         <v>15437</v>
       </c>
       <c r="C898" s="9" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
       <c r="D898" s="9" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
       <c r="E898" s="10" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="899" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -24258,13 +24252,13 @@
         <v>15438</v>
       </c>
       <c r="C899" s="9" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
       <c r="D899" s="9" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
       <c r="E899" s="10" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.3">
@@ -24274,13 +24268,13 @@
         <v>15439</v>
       </c>
       <c r="C900" s="9" t="s">
-        <v>2487</v>
+        <v>2479</v>
       </c>
       <c r="D900" s="9" t="s">
-        <v>2498</v>
+        <v>2490</v>
       </c>
       <c r="E900" s="10" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.3">
@@ -24290,13 +24284,13 @@
         <v>15440</v>
       </c>
       <c r="C901" s="9" t="s">
-        <v>2488</v>
+        <v>2480</v>
       </c>
       <c r="D901" s="9" t="s">
-        <v>2436</v>
+        <v>2428</v>
       </c>
       <c r="E901" s="10" t="s">
-        <v>2437</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.3">
@@ -24306,13 +24300,13 @@
         <v>15441</v>
       </c>
       <c r="C902" s="9" t="s">
-        <v>2489</v>
+        <v>2481</v>
       </c>
       <c r="D902" s="9" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
       <c r="E902" s="10" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.3">
@@ -24322,13 +24316,13 @@
         <v>15442</v>
       </c>
       <c r="C903" s="9" t="s">
-        <v>2490</v>
+        <v>2482</v>
       </c>
       <c r="D903" s="9" t="s">
-        <v>2500</v>
+        <v>2492</v>
       </c>
       <c r="E903" s="10" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.3">
@@ -24338,13 +24332,13 @@
         <v>15443</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="D904" s="9" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
       <c r="E904" s="10" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.3">
@@ -24354,13 +24348,13 @@
         <v>15444</v>
       </c>
       <c r="C905" s="9" t="s">
-        <v>2492</v>
+        <v>2484</v>
       </c>
       <c r="D905" s="9" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="E905" s="10" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.3">
@@ -24370,13 +24364,13 @@
         <v>15445</v>
       </c>
       <c r="C906" s="9" t="s">
-        <v>2493</v>
+        <v>2485</v>
       </c>
       <c r="D906" s="9" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
       <c r="E906" s="10" t="s">
-        <v>2512</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.3">
@@ -24386,13 +24380,13 @@
         <v>15446</v>
       </c>
       <c r="C907" s="9" t="s">
-        <v>2494</v>
+        <v>2486</v>
       </c>
       <c r="D907" s="9" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
       <c r="E907" s="10" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.3">
@@ -24402,13 +24396,13 @@
         <v>15447</v>
       </c>
       <c r="C908" s="9" t="s">
-        <v>2495</v>
+        <v>2487</v>
       </c>
       <c r="D908" s="9" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="E908" s="10" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.3">
@@ -24418,13 +24412,13 @@
         <v>15448</v>
       </c>
       <c r="C909" s="9" t="s">
-        <v>2496</v>
+        <v>2488</v>
       </c>
       <c r="D909" s="9" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
       <c r="E909" s="10" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="910" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24434,13 +24428,13 @@
         <v>15449</v>
       </c>
       <c r="C910" s="11" t="s">
-        <v>2497</v>
+        <v>2489</v>
       </c>
       <c r="D910" s="11" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
       <c r="E910" s="12" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="911" spans="1:5" ht="103.2" x14ac:dyDescent="0.3">
@@ -24450,13 +24444,13 @@
         <v>15450</v>
       </c>
       <c r="C911" s="9" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
       <c r="D911" s="9" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="E911" s="10" t="s">
-        <v>2518</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="912" spans="1:5" ht="144" x14ac:dyDescent="0.3">
@@ -24466,13 +24460,13 @@
         <v>15451</v>
       </c>
       <c r="C912" s="9" t="s">
-        <v>2519</v>
+        <v>2511</v>
       </c>
       <c r="D912" s="9" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="E912" s="10" t="s">
-        <v>2521</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="913" spans="1:5" ht="123.6" x14ac:dyDescent="0.3">
@@ -24482,13 +24476,13 @@
         <v>15452</v>
       </c>
       <c r="C913" s="9" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
       <c r="D913" s="9" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="E913" s="10" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="914" spans="1:5" ht="123.6" x14ac:dyDescent="0.3">
@@ -24498,10 +24492,10 @@
         <v>15453</v>
       </c>
       <c r="C914" s="9" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="D914" s="9" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="E914" s="10"/>
     </row>
@@ -24512,13 +24506,13 @@
         <v>15454</v>
       </c>
       <c r="C915" s="9" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="D915" s="9" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="E915" s="10" t="s">
-        <v>2530</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="916" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
@@ -24528,13 +24522,13 @@
         <v>15455</v>
       </c>
       <c r="C916" s="9" t="s">
-        <v>2528</v>
+        <v>2520</v>
       </c>
       <c r="D916" s="9" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
       <c r="E916" s="10" t="s">
-        <v>2532</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="917" spans="1:5" ht="144" x14ac:dyDescent="0.3">
@@ -24544,13 +24538,13 @@
         <v>15456</v>
       </c>
       <c r="C917" s="9" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="D917" s="9" t="s">
-        <v>2534</v>
+        <v>2526</v>
       </c>
       <c r="E917" s="10" t="s">
-        <v>2535</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="918" spans="1:5" ht="123.6" x14ac:dyDescent="0.3">
@@ -24560,13 +24554,13 @@
         <v>15457</v>
       </c>
       <c r="C918" s="9" t="s">
-        <v>2536</v>
+        <v>2528</v>
       </c>
       <c r="D918" s="9" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="E918" s="10" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="919" spans="1:5" ht="123.6" x14ac:dyDescent="0.3">
@@ -24576,13 +24570,13 @@
         <v>15458</v>
       </c>
       <c r="C919" s="9" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
       <c r="D919" s="9" t="s">
-        <v>2540</v>
+        <v>2532</v>
       </c>
       <c r="E919" s="10" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="920" spans="1:5" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -24592,30 +24586,30 @@
         <v>15459</v>
       </c>
       <c r="C920" s="11" t="s">
-        <v>2541</v>
+        <v>2533</v>
       </c>
       <c r="D920" s="11" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="E920" s="12" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="921" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A921" s="14" t="s">
-        <v>2545</v>
+        <v>2537</v>
       </c>
       <c r="B921" s="15">
         <v>14344</v>
       </c>
       <c r="C921" s="16" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
       <c r="D921" s="16" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
       <c r="E921" s="17" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.3">
@@ -24625,13 +24619,13 @@
         <v>14345</v>
       </c>
       <c r="C922" s="9" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="D922" s="9" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="E922" s="10" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.3">
@@ -24641,13 +24635,13 @@
         <v>14346</v>
       </c>
       <c r="C923" s="9" t="s">
-        <v>2548</v>
+        <v>2540</v>
       </c>
       <c r="D923" s="9" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
       <c r="E923" s="10" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.3">
@@ -24657,13 +24651,13 @@
         <v>14347</v>
       </c>
       <c r="C924" s="9" t="s">
-        <v>2549</v>
+        <v>2541</v>
       </c>
       <c r="D924" s="9" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="E924" s="10" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.3">
@@ -24673,13 +24667,13 @@
         <v>14348</v>
       </c>
       <c r="C925" s="9" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
       <c r="D925" s="9" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="E925" s="10" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="926" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -24689,13 +24683,13 @@
         <v>14349</v>
       </c>
       <c r="C926" s="9" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
       <c r="D926" s="9" t="s">
-        <v>2562</v>
+        <v>2554</v>
       </c>
       <c r="E926" s="10" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.3">
@@ -24705,13 +24699,13 @@
         <v>14350</v>
       </c>
       <c r="C927" s="9" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D927" s="9" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E927" s="10" t="s">
         <v>2564</v>
-      </c>
-      <c r="D927" s="9" t="s">
-        <v>2569</v>
-      </c>
-      <c r="E927" s="10" t="s">
-        <v>2572</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.3">
@@ -24721,13 +24715,13 @@
         <v>14351</v>
       </c>
       <c r="C928" s="9" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="D928" s="18" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="E928" s="10" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.3">
@@ -24737,13 +24731,13 @@
         <v>14352</v>
       </c>
       <c r="C929" s="9" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
       <c r="D929" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="E929" s="10" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.3">
@@ -24753,13 +24747,13 @@
         <v>14353</v>
       </c>
       <c r="C930" s="9" t="s">
-        <v>2567</v>
+        <v>2559</v>
       </c>
       <c r="D930" s="9" t="s">
-        <v>2571</v>
+        <v>2563</v>
       </c>
       <c r="E930" s="10" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.3">
@@ -24769,13 +24763,13 @@
         <v>14354</v>
       </c>
       <c r="C931" s="9" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="D931" s="9" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="E931" s="10" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="932" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -24785,13 +24779,13 @@
         <v>14355</v>
       </c>
       <c r="C932" s="9" t="s">
-        <v>2575</v>
+        <v>2567</v>
       </c>
       <c r="D932" s="9" t="s">
-        <v>2577</v>
+        <v>2569</v>
       </c>
       <c r="E932" s="10" t="s">
-        <v>2578</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="933" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -24801,13 +24795,13 @@
         <v>14356</v>
       </c>
       <c r="C933" s="9" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="D933" s="9" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="E933" s="10" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.3">
@@ -24817,13 +24811,13 @@
         <v>14357</v>
       </c>
       <c r="C934" s="9" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D934" s="9" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E934" s="10" t="s">
         <v>2583</v>
-      </c>
-      <c r="D934" s="9" t="s">
-        <v>2587</v>
-      </c>
-      <c r="E934" s="10" t="s">
-        <v>2591</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.3">
@@ -24833,13 +24827,13 @@
         <v>14358</v>
       </c>
       <c r="C935" s="9" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D935" s="9" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E935" s="10" t="s">
         <v>2584</v>
-      </c>
-      <c r="D935" s="9" t="s">
-        <v>2588</v>
-      </c>
-      <c r="E935" s="10" t="s">
-        <v>2592</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.3">
@@ -24849,13 +24843,13 @@
         <v>14359</v>
       </c>
       <c r="C936" s="9" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D936" s="9" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E936" s="10" t="s">
         <v>2585</v>
-      </c>
-      <c r="D936" s="9" t="s">
-        <v>2589</v>
-      </c>
-      <c r="E936" s="10" t="s">
-        <v>2593</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.3">
@@ -24865,13 +24859,13 @@
         <v>14360</v>
       </c>
       <c r="C937" s="9" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D937" s="9" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E937" s="10" t="s">
         <v>2586</v>
-      </c>
-      <c r="D937" s="9" t="s">
-        <v>2590</v>
-      </c>
-      <c r="E937" s="10" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.3">
@@ -24881,13 +24875,13 @@
         <v>14361</v>
       </c>
       <c r="C938" s="9" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="D938" s="9" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="E938" s="10" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.3">
@@ -24897,13 +24891,13 @@
         <v>14362</v>
       </c>
       <c r="C939" s="9" t="s">
-        <v>2548</v>
+        <v>2540</v>
       </c>
       <c r="D939" s="9" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
       <c r="E939" s="10" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.3">
@@ -24913,13 +24907,13 @@
         <v>14363</v>
       </c>
       <c r="C940" s="9" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="D940" s="9" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E940" s="10" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.3">
@@ -24929,13 +24923,13 @@
         <v>14364</v>
       </c>
       <c r="C941" s="9" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="D941" s="9" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E941" s="10" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.3">
@@ -24945,13 +24939,13 @@
         <v>14365</v>
       </c>
       <c r="C942" s="9" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="D942" s="9" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E942" s="10" t="s">
-        <v>2599</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.3">
@@ -24961,13 +24955,13 @@
         <v>14366</v>
       </c>
       <c r="C943" s="9" t="s">
-        <v>2600</v>
+        <v>2592</v>
       </c>
       <c r="D943" s="9" t="s">
-        <v>2601</v>
+        <v>2593</v>
       </c>
       <c r="E943" s="10" t="s">
-        <v>2602</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="944" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -24977,13 +24971,13 @@
         <v>14367</v>
       </c>
       <c r="C944" s="9" t="s">
-        <v>2603</v>
+        <v>2595</v>
       </c>
       <c r="D944" s="9" t="s">
-        <v>2604</v>
+        <v>2596</v>
       </c>
       <c r="E944" s="10" t="s">
-        <v>2605</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="945" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -24993,13 +24987,13 @@
         <v>14368</v>
       </c>
       <c r="C945" s="9" t="s">
-        <v>2606</v>
+        <v>2598</v>
       </c>
       <c r="D945" s="9" t="s">
-        <v>2607</v>
+        <v>2599</v>
       </c>
       <c r="E945" s="10" t="s">
-        <v>2608</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="946" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -25009,13 +25003,13 @@
         <v>14369</v>
       </c>
       <c r="C946" s="9" t="s">
-        <v>2609</v>
+        <v>2601</v>
       </c>
       <c r="D946" s="9" t="s">
-        <v>2610</v>
+        <v>2602</v>
       </c>
       <c r="E946" s="10" t="s">
-        <v>2611</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="947" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -25025,13 +25019,13 @@
         <v>14370</v>
       </c>
       <c r="C947" s="9" t="s">
-        <v>2609</v>
+        <v>2601</v>
       </c>
       <c r="D947" s="9" t="s">
-        <v>2610</v>
+        <v>2602</v>
       </c>
       <c r="E947" s="10" t="s">
-        <v>2611</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="948" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -25041,13 +25035,13 @@
         <v>14371</v>
       </c>
       <c r="C948" s="9" t="s">
-        <v>2609</v>
+        <v>2601</v>
       </c>
       <c r="D948" s="9" t="s">
-        <v>2610</v>
+        <v>2602</v>
       </c>
       <c r="E948" s="10" t="s">
-        <v>2611</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="949" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -25057,13 +25051,13 @@
         <v>14372</v>
       </c>
       <c r="C949" s="9" t="s">
-        <v>2609</v>
+        <v>2601</v>
       </c>
       <c r="D949" s="9" t="s">
-        <v>2610</v>
+        <v>2602</v>
       </c>
       <c r="E949" s="10" t="s">
-        <v>2611</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="950" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -25073,13 +25067,13 @@
         <v>14373</v>
       </c>
       <c r="C950" s="9" t="s">
-        <v>2612</v>
+        <v>2604</v>
       </c>
       <c r="D950" s="9" t="s">
-        <v>2613</v>
+        <v>2605</v>
       </c>
       <c r="E950" s="10" t="s">
-        <v>2614</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="951" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -25089,13 +25083,13 @@
         <v>14374</v>
       </c>
       <c r="C951" s="9" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D951" s="9" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E951" s="10" t="s">
         <v>2603</v>
-      </c>
-      <c r="D951" s="9" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E951" s="10" t="s">
-        <v>2611</v>
       </c>
     </row>
     <row r="952" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -25105,13 +25099,13 @@
         <v>14375</v>
       </c>
       <c r="C952" s="9" t="s">
-        <v>2615</v>
+        <v>2607</v>
       </c>
       <c r="D952" s="9" t="s">
-        <v>2616</v>
+        <v>2608</v>
       </c>
       <c r="E952" s="10" t="s">
-        <v>2617</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="953" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25121,13 +25115,13 @@
         <v>14376</v>
       </c>
       <c r="C953" s="11" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D953" s="11" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E953" s="12" t="s">
         <v>2603</v>
-      </c>
-      <c r="D953" s="11" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E953" s="12" t="s">
-        <v>2611</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.3">
